--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value550.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value550.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.5993265511092714</v>
+        <v>1.481462001800537</v>
       </c>
       <c r="B1">
-        <v>0.6715100846807084</v>
+        <v>1.670943021774292</v>
       </c>
       <c r="C1">
-        <v>0.8167184475577282</v>
+        <v>1.716025590896606</v>
       </c>
       <c r="D1">
-        <v>1.514400652854935</v>
+        <v>2.118695735931396</v>
       </c>
       <c r="E1">
-        <v>3.617006581813631</v>
+        <v>3.122179269790649</v>
       </c>
     </row>
   </sheetData>
